--- a/src/main/java/load/generator/BenchMark统计记录表格.xlsx
+++ b/src/main/java/load/generator/BenchMark统计记录表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10904"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangqingshuai/Documents/GitHub/Adaptive_Concurrency_Control/src/main/java/load/generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC522C-8BA4-2F4C-8850-7BBD1C9F7F2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83D943-D0DC-5544-9DF7-31D7ED09095C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" firstSheet="1" activeTab="3" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
+    <workbookView xWindow="1800" yWindow="-17540" windowWidth="28800" windowHeight="17540" firstSheet="1" activeTab="3" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
   <si>
     <t>&lt;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>decimal属性数量分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5,∞)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -691,6 +687,34 @@
   </si>
   <si>
     <t>Foreign key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,∞)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;10&amp;&lt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,10 +1017,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyAlignment="1">
@@ -1005,19 +1041,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,7 +1522,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1507,18 +1534,18 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="21"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="10"/>
@@ -1550,12 +1577,12 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1">
-      <c r="A3" s="32" t="s">
-        <v>63</v>
+      <c r="A3" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="10">
         <v>3</v>
@@ -1575,7 +1602,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="10">
         <v>5</v>
       </c>
@@ -1598,7 +1625,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="10">
         <v>6</v>
       </c>
@@ -1623,7 +1650,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -1646,7 +1673,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -1671,7 +1698,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="10">
         <v>1</v>
       </c>
@@ -1696,7 +1723,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -1721,7 +1748,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="10">
         <f>3+2</f>
         <v>5</v>
@@ -1751,7 +1778,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -1776,7 +1803,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="10">
@@ -1801,7 +1828,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="10">
         <v>37</v>
       </c>
@@ -1824,7 +1851,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10">
         <v>19</v>
       </c>
@@ -1847,7 +1874,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10">
         <v>13</v>
       </c>
@@ -1868,7 +1895,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10">
         <v>5</v>
       </c>
@@ -1893,7 +1920,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="10">
         <v>1</v>
       </c>
@@ -1914,7 +1941,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="10">
         <v>2</v>
       </c>
@@ -1935,7 +1962,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="10">
         <v>18</v>
       </c>
@@ -1956,7 +1983,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10">
         <v>18</v>
       </c>
@@ -1977,7 +2004,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -1998,8 +2025,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1">
-      <c r="A22" s="32" t="s">
-        <v>64</v>
+      <c r="A22" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="B22" s="10">
         <v>4</v>
@@ -2021,7 +2048,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="10">
         <f>1+10+10+10+2</f>
         <v>33</v>
@@ -2043,7 +2070,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="10">
         <v>5</v>
       </c>
@@ -2064,7 +2091,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="6" customFormat="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="10">
         <v>4</v>
       </c>
@@ -2085,8 +2112,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="33" t="s">
-        <v>65</v>
+      <c r="A26" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
@@ -2108,7 +2135,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="10">
         <v>1</v>
       </c>
@@ -2129,7 +2156,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -2165,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D033105-9DAE-B340-B6B8-4C630EA3FA23}">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2181,41 +2208,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="5" customFormat="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="32" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="Q1" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="U1" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="Y1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="Q1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="U1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
       <c r="AA1" s="7"/>
     </row>
     <row r="2" spans="1:28" s="5" customFormat="1">
@@ -2266,10 +2289,10 @@
         <v>23</v>
       </c>
       <c r="R2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>30</v>
@@ -2279,12 +2302,6 @@
       </c>
       <c r="W2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -2324,7 +2341,7 @@
         <v>21</v>
       </c>
       <c r="J3" s="11">
-        <f t="array" ref="J3:J8">FREQUENCY(table详细统计!I3:I28,table统计分析!U22:U26)</f>
+        <f t="array" ref="J3:J8">FREQUENCY(table详细统计!I3:I28,table统计分析!Y15:Y19)</f>
         <v>9</v>
       </c>
       <c r="K3" s="14">
@@ -2344,7 +2361,7 @@
         <v>0.34615384615384615</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="10">
         <v>8</v>
@@ -2354,7 +2371,7 @@
         <v>0.15686274509803921</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V3" s="11">
         <v>12</v>
@@ -2362,13 +2379,6 @@
       <c r="W3" s="14">
         <f>V3/V$7</f>
         <v>0.63157894736842102</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="14">
-        <f>AVERAGE(A3:A28)</f>
-        <v>0.58895950569420963</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2419,7 +2429,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="11">
-        <f t="array" ref="N4:N7">FREQUENCY(table详细统计!F3:F28,W22:W24)</f>
+        <f t="array" ref="N4:N7">FREQUENCY(table详细统计!F3:F28,AA15:AA17)</f>
         <v>15</v>
       </c>
       <c r="O4" s="14">
@@ -2427,7 +2437,7 @@
         <v>0.57692307692307687</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" s="10">
         <v>22</v>
@@ -2437,7 +2447,7 @@
         <v>0.43137254901960786</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" s="11">
         <v>3</v>
@@ -2445,13 +2455,6 @@
       <c r="W4" s="14">
         <f>V4/V$7</f>
         <v>0.15789473684210525</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="14">
-        <f>AVERAGE(B3:B28)</f>
-        <v>5.5367100220041397E-2</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -2509,7 +2512,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R5" s="10">
         <v>3</v>
@@ -2519,7 +2522,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V5" s="11">
         <v>4</v>
@@ -2527,13 +2530,6 @@
       <c r="W5" s="14">
         <f>V5/V$7</f>
         <v>0.21052631578947367</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="14">
-        <f>AVERAGE(C3:C28)</f>
-        <v>2.490842490842491E-2</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2581,7 +2577,7 @@
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" s="11">
         <v>1</v>
@@ -2591,7 +2587,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R6" s="10">
         <v>11</v>
@@ -2601,7 +2597,7 @@
         <v>0.21568627450980393</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V6" s="11">
         <v>0</v>
@@ -2609,13 +2605,6 @@
       <c r="W6" s="14">
         <f>V6/V$7</f>
         <v>0</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="14">
-        <f>AVERAGE(D3:D28)</f>
-        <v>5.1168112932818817E-2</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2663,7 +2652,7 @@
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="11">
         <v>0</v>
@@ -2673,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="10">
         <v>4</v>
@@ -2691,13 +2680,6 @@
         <f>V7/V$7</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="14">
-        <f>AVERAGE(E3:E28)</f>
-        <v>0.20592405468708833</v>
-      </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="16">
@@ -2733,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="11">
         <v>1</v>
@@ -2753,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R8" s="10">
         <v>3</v>
@@ -2765,13 +2747,6 @@
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
-      <c r="Y8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="14">
-        <f>AVERAGE(F3:F28)</f>
-        <v>6.5980493865109249E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="16">
@@ -2833,13 +2808,6 @@
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
-      <c r="Y9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="14">
-        <f>AVERAGE(G3:G28)</f>
-        <v>7.6923076923076927E-3</v>
-      </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="16">
@@ -2887,13 +2855,6 @@
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
-      <c r="Y10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="14">
-        <f>SUM(Z3:Z9)</f>
-        <v>1.0000000000000002</v>
-      </c>
     </row>
     <row r="11" spans="1:28" ht="21">
       <c r="A11" s="16">
@@ -2928,27 +2889,27 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="Q11" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="U11" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="Q11" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="U11" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
@@ -3010,10 +2971,10 @@
         <v>23</v>
       </c>
       <c r="R12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>30</v>
@@ -3066,7 +3027,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="11">
-        <f t="array" ref="J13:J18">FREQUENCY(table详细统计!B3:B28,table统计分析!U22:U26)</f>
+        <f t="array" ref="J13:J18">FREQUENCY(table详细统计!B3:B28,table统计分析!Y15:Y19)</f>
         <v>18</v>
       </c>
       <c r="K13" s="14">
@@ -3089,7 +3050,7 @@
         <v>0.69230769230769229</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R13" s="10">
         <v>5</v>
@@ -3161,10 +3122,10 @@
         <v>0.73076923076923073</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="N14" s="11">
-        <f t="array" ref="N14:N15">FREQUENCY(table详细统计!C3:C28,table统计分析!U22:U26)</f>
+        <f t="array" ref="N14:N15">FREQUENCY(table详细统计!C3:C28,table统计分析!Y15:Y19)</f>
         <v>8</v>
       </c>
       <c r="O14" s="14">
@@ -3172,7 +3133,7 @@
         <v>0.30769230769230771</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" s="10">
         <v>3</v>
@@ -3191,9 +3152,13 @@
         <f t="shared" ref="W14:W17" si="7">V14/V$18</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="Y14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="21">
@@ -3244,7 +3209,7 @@
         <v>0.88461538461538458</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="N15" s="11">
         <v>0</v>
@@ -3254,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R15" s="10">
         <v>0</v>
@@ -3274,11 +3239,15 @@
         <v>0.36842105263157893</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="8">
+        <v>5</v>
+      </c>
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="21">
@@ -3338,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R16" s="10">
         <v>1</v>
@@ -3357,9 +3326,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="Y16" s="8">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>10</v>
+      </c>
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="21">
@@ -3413,7 +3385,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="14"/>
       <c r="Q17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R17" s="10">
         <v>12</v>
@@ -3432,9 +3404,12 @@
         <f t="shared" si="7"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="Y17" s="8">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>30</v>
+      </c>
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="21">
@@ -3471,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="11">
         <v>0</v>
@@ -3485,7 +3460,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="14"/>
       <c r="Q18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R18" s="10">
         <v>0</v>
@@ -3503,9 +3478,10 @@
         <f>V18/V$18</f>
         <v>1</v>
       </c>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
+      <c r="Y18" s="8">
+        <v>30</v>
+      </c>
+      <c r="AA18" s="8"/>
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="21">
@@ -3568,9 +3544,10 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="14"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
+      <c r="Y19" s="8">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="8"/>
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="21">
@@ -3651,29 +3628,26 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="Q21" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="U21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="M21" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="Q21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="U21" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="V21" s="33"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
@@ -3740,12 +3714,11 @@
       <c r="S22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U22" s="5">
-        <v>5</v>
-      </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="8">
-        <v>5</v>
+      <c r="U22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -3819,11 +3792,12 @@
         <f>R23/R$27</f>
         <v>0.65384615384615385</v>
       </c>
-      <c r="U23" s="8">
-        <v>10</v>
-      </c>
-      <c r="W23" s="8">
-        <v>10</v>
+      <c r="U23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V23" s="14">
+        <f>AVERAGE(A3:A28)</f>
+        <v>0.58895950569420963</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -3867,7 +3841,7 @@
         <v>21</v>
       </c>
       <c r="J24" s="11">
-        <f t="array" ref="J24:J26">FREQUENCY(table详细统计!E3:E28,table统计分析!U22:U23)</f>
+        <f t="array" ref="J24:J26">FREQUENCY(table详细统计!E3:E28,table统计分析!Y15:Y16)</f>
         <v>4</v>
       </c>
       <c r="K24" s="14">
@@ -3897,11 +3871,12 @@
         <f t="shared" ref="S24:S26" si="10">R24/R$27</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="U24" s="8">
-        <v>20</v>
-      </c>
-      <c r="W24" s="8">
-        <v>30</v>
+      <c r="U24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V24" s="14">
+        <f>AVERAGE(B3:B28)</f>
+        <v>5.5367100220041397E-2</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -3974,10 +3949,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U25" s="8">
-        <v>30</v>
-      </c>
-      <c r="W25" s="8"/>
+      <c r="U25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="14">
+        <f>AVERAGE(C3:C28)</f>
+        <v>2.490842490842491E-2</v>
+      </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
@@ -4017,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="11">
         <v>0</v>
@@ -4047,10 +4025,13 @@
         <f t="shared" si="10"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="U26" s="8">
-        <v>40</v>
-      </c>
-      <c r="W26" s="8"/>
+      <c r="U26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="14">
+        <f>AVERAGE(D3:D28)</f>
+        <v>5.1168112932818817E-2</v>
+      </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
@@ -4111,6 +4092,13 @@
         <f>R27/R$27</f>
         <v>1</v>
       </c>
+      <c r="U27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="14">
+        <f>AVERAGE(E3:E28)</f>
+        <v>0.20592405468708833</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="16">
@@ -4146,18 +4134,35 @@
         <v>1</v>
       </c>
       <c r="K28" s="9"/>
+      <c r="U28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V28" s="14">
+        <f>AVERAGE(F3:F28)</f>
+        <v>6.5980493865109249E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
       <c r="K29" s="9"/>
+      <c r="U29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="14">
+        <f>AVERAGE(G3:G28)</f>
+        <v>7.6923076923076927E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="U30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V30" s="14">
+        <f>SUM(V23:V29)</f>
+        <v>1.0000000000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="U11:W11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I1:K1"/>
@@ -4165,6 +4170,12 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M21:O21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="U11:W11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4175,11 +4186,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE6FC2-0FFC-1645-8F50-C1FEFF58B5B9}">
   <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC37" sqref="AC37:AC38"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4213,80 +4224,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="B1" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="J1" s="37" t="s">
+      <c r="B1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="J1" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="T1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="T1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="AA1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="AA1" s="37" t="s">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AH1" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AH1" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>119</v>
+      <c r="R2" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>18</v>
@@ -4295,42 +4306,42 @@
         <v>12</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG2" s="37" t="s">
-        <v>112</v>
+      <c r="AF2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG2" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="37" t="s">
-        <v>63</v>
+      <c r="A3" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="22">
         <v>23</v>
@@ -4350,53 +4361,53 @@
         <v>0.45</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
       <c r="T3" s="5">
         <v>3</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
       <c r="AH3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37" t="s">
-        <v>84</v>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="C4" s="22">
         <v>3</v>
@@ -4412,7 +4423,7 @@
         <f t="shared" ref="G4:G8" si="0">SUM(C4:F4)</f>
         <v>7</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="41">
         <v>0.43</v>
       </c>
       <c r="K4" s="22"/>
@@ -4437,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA4" s="5">
         <v>1</v>
@@ -4446,12 +4457,12 @@
         <v>1</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="22">
         <v>5</v>
       </c>
@@ -4466,7 +4477,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="41"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22">
         <v>1</v>
@@ -4487,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA5" s="5">
         <v>2</v>
@@ -4503,9 +4514,9 @@
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37" t="s">
-        <v>85</v>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="C6" s="22">
         <v>12</v>
@@ -4517,7 +4528,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="41">
         <v>0.04</v>
       </c>
       <c r="K6" s="22">
@@ -4530,7 +4541,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="T6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U6" s="5">
         <v>5</v>
@@ -4545,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB6" s="5">
         <v>1</v>
@@ -4555,8 +4566,8 @@
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="22">
         <v>14</v>
       </c>
@@ -4567,7 +4578,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="41"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22">
         <v>1</v>
@@ -4584,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB7" s="5">
         <v>1</v>
@@ -4594,9 +4605,9 @@
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="22">
         <v>12</v>
@@ -4634,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA8" s="5">
         <v>1</v>
@@ -4650,9 +4661,9 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="37"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="22">
         <v>401</v>
@@ -4682,11 +4693,11 @@
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="37" t="s">
-        <v>64</v>
+      <c r="A10" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="22">
         <v>1</v>
@@ -4713,9 +4724,9 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="22">
         <v>1</v>
@@ -4741,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD11" s="5">
         <v>1</v>
@@ -4751,9 +4762,9 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="37"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="22">
         <v>1</v>
@@ -4783,9 +4794,9 @@
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="37"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22">
@@ -4810,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>11</v>
@@ -4823,9 +4834,9 @@
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="37"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22">
@@ -4846,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P14" s="22" t="s">
         <v>12</v>
@@ -4862,9 +4873,9 @@
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="22">
         <v>2</v>
@@ -4889,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA15" s="5">
         <v>1</v>
@@ -4899,9 +4910,9 @@
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="37"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
@@ -4922,7 +4933,7 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P16" s="22" t="s">
         <v>12</v>
@@ -4938,11 +4949,11 @@
       </c>
     </row>
     <row r="17" spans="1:33" s="22" customFormat="1">
-      <c r="A17" s="37" t="s">
-        <v>100</v>
+      <c r="A17" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="22">
         <v>3</v>
@@ -4964,9 +4975,9 @@
       </c>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="22">
         <v>1</v>
@@ -4987,10 +4998,10 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB18" s="5">
         <v>1</v>
@@ -5000,9 +5011,9 @@
       </c>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="37"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="22">
         <v>2</v>
@@ -5031,9 +5042,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" s="22" customFormat="1" ht="68">
-      <c r="A20" s="37"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="22">
         <v>3</v>
@@ -5053,12 +5064,12 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P20" s="25"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB20" s="22">
         <v>1</v>
@@ -5068,9 +5079,9 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="22">
         <v>4</v>
@@ -5104,9 +5115,9 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="68">
-      <c r="A22" s="37"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="22">
         <v>3</v>
@@ -5127,7 +5138,7 @@
       </c>
       <c r="N22" s="22"/>
       <c r="O22" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA22" s="5">
         <v>1</v>
@@ -5137,11 +5148,11 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="22">
         <v>2</v>
@@ -5180,9 +5191,9 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="34">
-      <c r="A24" s="37"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="22">
         <v>3</v>
@@ -5201,7 +5212,7 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA24" s="5">
         <v>1</v>
@@ -5211,9 +5222,9 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="34">
-      <c r="A25" s="37"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="22">
         <v>2</v>
@@ -5232,7 +5243,7 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA25" s="5">
         <v>1</v>
@@ -5242,9 +5253,9 @@
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="37"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="22">
         <v>4</v>
@@ -5267,7 +5278,7 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA26" s="5">
         <v>6</v>
@@ -5280,9 +5291,9 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="34">
-      <c r="A27" s="37"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="22">
         <v>4</v>
@@ -5303,7 +5314,7 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA27" s="5">
         <v>5</v>
@@ -5316,9 +5327,9 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="34">
-      <c r="A28" s="37"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="22">
         <v>2</v>
@@ -5344,7 +5355,7 @@
       </c>
       <c r="N28" s="27"/>
       <c r="O28" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -5357,7 +5368,7 @@
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="37"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -5379,8 +5390,10 @@
       </c>
     </row>
     <row r="30" spans="1:33">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="40"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -5400,9 +5413,17 @@
       </c>
     </row>
     <row r="31" spans="1:33" ht="34">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="B31" s="22">
+        <v>0</v>
+      </c>
+      <c r="C31" s="22">
+        <f>COUNTBLANK(C3:C28)</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="22">
+        <f>C31/26</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -5418,10 +5439,21 @@
       </c>
       <c r="N31" s="22"/>
       <c r="O31" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="34">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <f>COUNTIF(C3:C28,B32)</f>
+        <v>5</v>
+      </c>
+      <c r="D32" s="32">
+        <f t="shared" ref="D32:D51" si="1">C32/26</f>
+        <v>0.19230769230769232</v>
+      </c>
       <c r="J32" s="8">
         <v>1</v>
       </c>
@@ -5432,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA32" s="5">
         <v>0</v>
@@ -5446,7 +5478,18 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="10:29">
+    <row r="33" spans="2:29">
+      <c r="B33" s="5">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5">
+        <f>COUNTIF(C3:C28,B33)</f>
+        <v>5</v>
+      </c>
+      <c r="D33" s="32">
+        <f t="shared" si="1"/>
+        <v>0.19230769230769232</v>
+      </c>
       <c r="L33" s="5">
         <v>1</v>
       </c>
@@ -5458,11 +5501,22 @@
         <v>11</v>
       </c>
       <c r="AC33" s="31">
-        <f t="shared" ref="AC33:AC35" si="1">AB33/27</f>
+        <f t="shared" ref="AC33:AC35" si="2">AB33/27</f>
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="34" spans="10:29" ht="34">
+    <row r="34" spans="2:29" ht="34">
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
+        <f>COUNTIF(C3:C28,B34)</f>
+        <v>5</v>
+      </c>
+      <c r="D34" s="32">
+        <f t="shared" si="1"/>
+        <v>0.19230769230769232</v>
+      </c>
       <c r="J34" s="8">
         <v>1</v>
       </c>
@@ -5473,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA34" s="5">
         <v>2</v>
@@ -5483,27 +5537,49 @@
         <v>4</v>
       </c>
       <c r="AC34" s="31">
+        <f t="shared" si="2"/>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="5">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5">
+        <f>COUNTIF(C3:C28,B35)</f>
+        <v>3</v>
+      </c>
+      <c r="D35" s="32">
         <f t="shared" si="1"/>
-        <v>0.14814814814814814</v>
-      </c>
-    </row>
-    <row r="35" spans="10:29">
+        <v>0.11538461538461539</v>
+      </c>
       <c r="L35" s="5">
         <v>1</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB35" s="5">
         <f>COUNTIF(AA4:AA30,"&gt;2")</f>
         <v>3</v>
       </c>
       <c r="AC35" s="31">
+        <f t="shared" si="2"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
+      <c r="B36" s="5">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5">
+        <f>COUNTIF(C3:C28,B36)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="32">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="36" spans="10:29">
+        <v>3.8461538461538464E-2</v>
+      </c>
       <c r="J36" s="8">
         <v>1</v>
       </c>
@@ -5518,7 +5594,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="10:29">
+    <row r="37" spans="2:29">
+      <c r="B37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3</v>
+      </c>
+      <c r="D37" s="32">
+        <f t="shared" si="1"/>
+        <v>0.11538461538461539</v>
+      </c>
       <c r="L37" s="5">
         <v>1</v>
       </c>
@@ -5534,7 +5620,17 @@
         <v>0.51851851851851849</v>
       </c>
     </row>
-    <row r="38" spans="10:29">
+    <row r="38" spans="2:29">
+      <c r="B38" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="32">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="L38" s="5">
         <v>1</v>
       </c>
@@ -5546,11 +5642,19 @@
         <v>10</v>
       </c>
       <c r="AC38" s="31">
-        <f t="shared" ref="AC38:AC39" si="2">AB38/27</f>
+        <f t="shared" ref="AC38:AC39" si="3">AB38/27</f>
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="39" spans="10:29" ht="34">
+    <row r="39" spans="2:29" ht="34">
+      <c r="B39" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J39" s="8">
         <v>1</v>
       </c>
@@ -5561,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA39" s="5">
         <v>2</v>
@@ -5571,11 +5675,22 @@
         <v>3</v>
       </c>
       <c r="AC39" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="40" spans="10:29">
+    <row r="40" spans="2:29">
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <f>COUNTBLANK(D3:D28)</f>
+        <v>11</v>
+      </c>
+      <c r="D40" s="32">
+        <f t="shared" si="1"/>
+        <v>0.42307692307692307</v>
+      </c>
       <c r="L40" s="5">
         <v>1</v>
       </c>
@@ -5584,7 +5699,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="10:29">
+    <row r="41" spans="2:29">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <f>COUNTIF(D3:D28,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D41" s="32">
+        <f t="shared" si="1"/>
+        <v>0.19230769230769232</v>
+      </c>
       <c r="J41" s="28"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25">
@@ -5608,12 +5734,23 @@
         <v>0.96296296296296291</v>
       </c>
     </row>
-    <row r="42" spans="10:29" ht="34">
+    <row r="42" spans="2:29" ht="34">
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <f>COUNTIF(D3:D28,2)</f>
+        <v>4</v>
+      </c>
+      <c r="D42" s="32">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
       <c r="K42" s="5">
         <v>1</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA42" s="5">
         <v>1</v>
@@ -5626,26 +5763,47 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="43" spans="10:29" ht="51">
+    <row r="43" spans="2:29" ht="52" customHeight="1">
+      <c r="B43" s="5">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5">
+        <f>COUNTIF(D3:D28,B43)</f>
+        <v>4</v>
+      </c>
+      <c r="D43" s="32">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
       <c r="K43" s="5">
         <v>2</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA43" s="31">
         <v>0</v>
       </c>
       <c r="AB43" s="31">
-        <f>COUNTBLANK(AC6:AC32)</f>
-        <v>25</v>
+        <f>COUNTBLANK(AD4:AD30)</f>
+        <v>26</v>
       </c>
       <c r="AC43" s="31">
         <f>AB43/27</f>
-        <v>0.92592592592592593</v>
-      </c>
-    </row>
-    <row r="44" spans="10:29" ht="34">
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" ht="34">
+      <c r="B44" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2</v>
+      </c>
+      <c r="D44" s="32">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="K44" s="5">
         <v>7</v>
       </c>
@@ -5656,7 +5814,7 @@
         <v>4</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA44" s="31">
         <v>1</v>
@@ -5669,7 +5827,15 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="45" spans="10:29">
+    <row r="45" spans="2:29">
+      <c r="B45" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J45" s="8">
         <v>1</v>
       </c>
@@ -5680,13 +5846,24 @@
         <v>1</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P45" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="10:29">
+    <row r="46" spans="2:29">
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <f>COUNTBLANK(F3:F28)</f>
+        <v>23</v>
+      </c>
+      <c r="D46" s="32">
+        <f t="shared" si="1"/>
+        <v>0.88461538461538458</v>
+      </c>
       <c r="K46" s="5">
         <v>1</v>
       </c>
@@ -5697,10 +5874,21 @@
         <v>6</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="10:29" ht="51">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" ht="51">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <f>COUNTIF(F3:F28,B47)</f>
+        <v>3</v>
+      </c>
+      <c r="D47" s="32">
+        <f t="shared" si="1"/>
+        <v>0.11538461538461539</v>
+      </c>
       <c r="K47" s="5">
         <v>7</v>
       </c>
@@ -5711,10 +5899,18 @@
         <v>2</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="10:29">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29">
+      <c r="B48" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K48" s="5">
         <v>3</v>
       </c>
@@ -5722,18 +5918,40 @@
         <v>1</v>
       </c>
       <c r="R48" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="10:15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <f>COUNTBLANK(E3:E28)</f>
+        <v>21</v>
+      </c>
+      <c r="D49" s="32">
+        <f t="shared" si="1"/>
+        <v>0.80769230769230771</v>
+      </c>
       <c r="K49" s="5">
         <v>3</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="10:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <f>COUNTIF(E3:E28,B50)</f>
+        <v>4</v>
+      </c>
+      <c r="D50" s="32">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
       <c r="J50" s="8">
         <v>1</v>
       </c>
@@ -5744,45 +5962,55 @@
         <v>4</v>
       </c>
       <c r="O50" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="5">
+        <v>12</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="32">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="O52" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="10:15">
-      <c r="K51" s="5">
-        <v>1</v>
-      </c>
-      <c r="L51" s="5">
-        <v>1</v>
-      </c>
-      <c r="M51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="10:15">
-      <c r="K52" s="5">
-        <v>1</v>
-      </c>
-      <c r="O52" s="5" t="s">
+    <row r="53" spans="2:15">
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="10:15">
-      <c r="K53" s="5">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="10:15" ht="34">
+    <row r="54" spans="2:15" ht="34">
       <c r="K54" s="5">
         <v>1</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="10:15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
       <c r="J55" s="8">
         <v>1</v>
       </c>
@@ -5796,15 +6024,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="10:15">
+    <row r="56" spans="2:15">
       <c r="J56" s="8">
         <v>2</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="10:15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
       <c r="J57" s="8">
         <v>1</v>
       </c>
@@ -5815,26 +6043,26 @@
         <v>5</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="10:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
       <c r="K58" s="5">
         <v>1</v>
       </c>
       <c r="O58" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="K59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="10:15">
-      <c r="K59" s="5">
-        <v>1</v>
-      </c>
-      <c r="O59" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="10:15">
+    <row r="61" spans="2:15">
       <c r="J61" s="8">
         <v>0</v>
       </c>
@@ -5847,7 +6075,7 @@
         <v>0.32142857142857145</v>
       </c>
     </row>
-    <row r="62" spans="10:15">
+    <row r="62" spans="2:15">
       <c r="J62" s="8">
         <v>1</v>
       </c>
@@ -5856,11 +6084,11 @@
         <v>24</v>
       </c>
       <c r="L62" s="30">
-        <f t="shared" ref="L62:L65" si="3">K62/K$66</f>
+        <f t="shared" ref="L62:L65" si="4">K62/K$66</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="63" spans="10:15">
+    <row r="63" spans="2:15">
       <c r="J63" s="8">
         <v>2</v>
       </c>
@@ -5869,11 +6097,11 @@
         <v>6</v>
       </c>
       <c r="L63" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="64" spans="10:15">
+    <row r="64" spans="2:15">
       <c r="J64" s="8">
         <v>3</v>
       </c>
@@ -5882,20 +6110,20 @@
         <v>2</v>
       </c>
       <c r="L64" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="65" spans="10:12">
       <c r="J65" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K65" s="5">
         <f>COUNTIF(K4:K59,"&gt;3")</f>
         <v>6</v>
       </c>
       <c r="L65" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10714285714285714</v>
       </c>
     </row>
@@ -5927,7 +6155,7 @@
         <v>19</v>
       </c>
       <c r="L68" s="30">
-        <f t="shared" ref="L68:L70" si="4">K68/56</f>
+        <f t="shared" ref="L68:L70" si="5">K68/56</f>
         <v>0.3392857142857143</v>
       </c>
     </row>
@@ -5940,7 +6168,7 @@
         <v>2</v>
       </c>
       <c r="L69" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -5953,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -5985,7 +6213,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="30">
-        <f t="shared" ref="L73:L75" si="5">K73/56</f>
+        <f t="shared" ref="L73:L75" si="6">K73/56</f>
         <v>0.19642857142857142</v>
       </c>
     </row>
@@ -5998,20 +6226,20 @@
         <v>3</v>
       </c>
       <c r="L74" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3571428571428568E-2</v>
       </c>
     </row>
     <row r="75" spans="10:12">
       <c r="J75" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K75" s="30">
         <f>COUNTIF(M4:M59,"&gt;2")</f>
         <v>10</v>
       </c>
       <c r="L75" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17857142857142858</v>
       </c>
     </row>
@@ -6043,7 +6271,7 @@
         <v>4</v>
       </c>
       <c r="L78" s="30">
-        <f t="shared" ref="L78:L79" si="6">K78/56</f>
+        <f t="shared" ref="L78:L79" si="7">K78/56</f>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -6055,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7857142857142856E-2</v>
       </c>
     </row>
@@ -6065,14 +6293,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="J1:Q1"/>
+  <mergeCells count="25">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A22"/>
@@ -6087,6 +6312,13 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J2:N2"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
